--- a/project/Evaluation/Evaluation.xlsx
+++ b/project/Evaluation/Evaluation.xlsx
@@ -5,15 +5,18 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shusenwang/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shusenwang/Documents/CS583A-2019Spring/project/Evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$12</definedName>
+  </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -27,10 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
-  <si>
-    <t>Was the competition active (by Mar 7, 2019)?</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Work load / team size</t>
   </si>
@@ -80,13 +80,13 @@
     <t>Penalty for late submission?</t>
   </si>
   <si>
-    <t>Eligible for bonus?</t>
-  </si>
-  <si>
-    <t>Very high ranking?</t>
-  </si>
-  <si>
-    <t>Good presentation?</t>
+    <t>Was the competition active (by the date of proposal submission)?</t>
+  </si>
+  <si>
+    <t>How challenging is the competition?</t>
+  </si>
+  <si>
+    <t>High  (-0)</t>
   </si>
 </sst>
 </file>
@@ -156,11 +156,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -442,7 +442,7 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -454,136 +454,138 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-    </row>
-    <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+      <c r="D7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+    </row>
+    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="3"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -591,6 +593,6 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/project/Evaluation/Evaluation.xlsx
+++ b/project/Evaluation/Evaluation.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Work load / team size</t>
   </si>
@@ -87,6 +87,18 @@
   </si>
   <si>
     <t>High  (-0)</t>
+  </si>
+  <si>
+    <t>If the competition is different from the project proposal, is there a convincing justification?</t>
+  </si>
+  <si>
+    <t>Very convincing (-0)</t>
+  </si>
+  <si>
+    <t>Somehow convincing (-1)</t>
+  </si>
+  <si>
+    <t>Unconvincing (-2)</t>
   </si>
 </sst>
 </file>
@@ -124,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -147,11 +159,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -160,6 +209,15 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -441,16 +499,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="172" workbookViewId="0">
+      <selection activeCell="B12" sqref="A1:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="10.83203125" style="1"/>
+    <col min="2" max="3" width="13.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,11 +625,19 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
+    <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
@@ -583,13 +649,14 @@
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/project/Evaluation/Evaluation.xlsx
+++ b/project/Evaluation/Evaluation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr checkCompatibility="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shusenwang/Documents/CS583A-2019Spring/project/Evaluation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shusenwang/Documents/CS583-2019F/project/evaluation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$12</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$D$14</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="29">
   <si>
     <t>Work load / team size</t>
   </si>
@@ -99,6 +99,24 @@
   </si>
   <si>
     <t>Unconvincing (-2)</t>
+  </si>
+  <si>
+    <t>OK (-1)</t>
+  </si>
+  <si>
+    <t>Many baselines (-0)</t>
+  </si>
+  <si>
+    <t>Some baselines (-1)</t>
+  </si>
+  <si>
+    <t>No (-2)</t>
+  </si>
+  <si>
+    <t>Poor (-2)</t>
+  </si>
+  <si>
+    <t>Overall quality of this work. (E.g., are the methods/algorithms reasonable? Is the cross-validation reasonable?)</t>
   </si>
 </sst>
 </file>
@@ -200,13 +218,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="172" workbookViewId="0">
-      <selection activeCell="B12" sqref="A1:D12"/>
+    <sheetView tabSelected="1" zoomScale="172" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -512,42 +536,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-    </row>
-    <row r="2" spans="1:4" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+    </row>
+    <row r="2" spans="1:4" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="D3" s="2"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>6</v>
@@ -561,48 +585,50 @@
     </row>
     <row r="5" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="7" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="D7" s="2"/>
     </row>
     <row r="8" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -611,9 +637,9 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>12</v>
@@ -625,41 +651,55 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="64" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B12" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-    </row>
-    <row r="12" spans="1:4" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+    </row>
+    <row r="14" spans="1:4" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="8"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B14:D14"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>